--- a/presentations/2022/02_08_2022/VAST species summary.xlsx
+++ b/presentations/2022/02_08_2022/VAST species summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>Alaska plaice</t>
   </si>
@@ -83,61 +83,88 @@
     <t>tunicates</t>
   </si>
   <si>
-    <t>urchins</t>
+    <t>yellowfin sole</t>
+  </si>
+  <si>
+    <t>bivalves</t>
+  </si>
+  <si>
+    <t>Otter Trawl</t>
+  </si>
+  <si>
+    <t>Beam Trawl</t>
+  </si>
+  <si>
+    <t>saffron cod</t>
+  </si>
+  <si>
+    <t>Everywhere</t>
+  </si>
+  <si>
+    <t>Offshore W</t>
+  </si>
+  <si>
+    <t>Nearshore SW</t>
+  </si>
+  <si>
+    <t>Nearshore NE</t>
+  </si>
+  <si>
+    <t>Bryozoans</t>
+  </si>
+  <si>
+    <t>Patchy</t>
+  </si>
+  <si>
+    <t>other sea stars</t>
+  </si>
+  <si>
+    <t>AK Plaice</t>
+  </si>
+  <si>
+    <t>snow crabs</t>
+  </si>
+  <si>
+    <t>YFS</t>
+  </si>
+  <si>
+    <t>Distribution Types</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cannot fit model</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good </t>
+  </si>
+  <si>
+    <t>blue king crab</t>
+  </si>
+  <si>
+    <t>not enough data</t>
+  </si>
+  <si>
+    <t>too high CVs</t>
+  </si>
+  <si>
+    <t>rainbow smelt</t>
+  </si>
+  <si>
+    <t>red king crab</t>
+  </si>
+  <si>
+    <t>northern whelk</t>
   </si>
   <si>
     <t>walleye pollock</t>
   </si>
   <si>
-    <t>yellowfin sole</t>
-  </si>
-  <si>
-    <t>bivalves</t>
-  </si>
-  <si>
-    <t>Otter Trawl</t>
-  </si>
-  <si>
-    <t>Beam Trawl</t>
-  </si>
-  <si>
-    <t>saffron cod</t>
-  </si>
-  <si>
-    <t>Everywhere</t>
-  </si>
-  <si>
-    <t>Offshore W</t>
-  </si>
-  <si>
-    <t>Nearshore SW</t>
-  </si>
-  <si>
-    <t>Nearshore NE</t>
-  </si>
-  <si>
-    <t>Bryozoans</t>
-  </si>
-  <si>
-    <t>Patchy</t>
-  </si>
-  <si>
-    <t>other sea stars</t>
-  </si>
-  <si>
-    <t>AK Plaice</t>
-  </si>
-  <si>
-    <t>snow crabs</t>
-  </si>
-  <si>
-    <t>pollock</t>
-  </si>
-  <si>
-    <t>YFS</t>
-  </si>
-  <si>
-    <t>Distribution Types</t>
+    <t>qq-plot</t>
   </si>
 </sst>
 </file>
@@ -474,277 +501,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
